--- a/biology/Médecine/Artère_axillaire/Artère_axillaire.xlsx
+++ b/biology/Médecine/Artère_axillaire/Artère_axillaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_axillaire</t>
+          <t>Artère_axillaire</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère axillaire est une des artères systémiques amenant du sang oxygéné vers les membres supérieurs. On compte une artère axillaire droite et une axillaire gauche dans le creux axillaire.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_axillaire</t>
+          <t>Artère_axillaire</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les artères axillaires sont issues des artères subclavières juste sous le rebord de la clavicule, et en avant de la première côte (tubercule de Lisfranc). Cette artère se dirige vers le bas et en dehors, formant un arc concave vers le bas.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_axillaire</t>
+          <t>Artère_axillaire</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Trajet</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'artère axillaire pénètre dans le creux axillaire en passant entre la clavicule à l'avant et la première côte en dedans.
 Dans son trajet axillaire elle passe derrière le fascia clavi-pectoral, devant les muscles subscapulaire, grand rond et grand dorsal., en dehors du muscle grand dentelé recouvrant la cage thoracique, et en dedans du muscle coracobrachial et du chef court du biceps brachial.
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_axillaire</t>
+          <t>Artère_axillaire</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,9 +590,11 @@
           <t>Terminaison</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle donne naissance à l'artère brachiale (ou artère humérale) juste en dessous de la limite inférieure du muscle grand pectoral[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle donne naissance à l'artère brachiale (ou artère humérale) juste en dessous de la limite inférieure du muscle grand pectoral.
 </t>
         </is>
       </c>
@@ -587,7 +605,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Art%C3%A8re_axillaire</t>
+          <t>Artère_axillaire</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -605,7 +623,9 @@
           <t>Collatérales</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Ses collatérales sont :
 Artère thoracique supérieure au-dessous de la clavicule,
